--- a/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
+++ b/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Especificar Requisitos del Software 1:  </t>
   </si>
   <si>
-    <t>Sistema de logeo para poder ingresar al almacén</t>
+    <t>Sistema de logeo</t>
   </si>
   <si>
     <t>SS-SDL.DOCX</t>
@@ -138,10 +138,10 @@
     <t xml:space="preserve">Especificar Requisito del Software 2: </t>
   </si>
   <si>
-    <t>Añadir productos al inventario del programa</t>
-  </si>
-  <si>
-    <t>SS-ANA.DOCX</t>
+    <t>Añadir productos</t>
+  </si>
+  <si>
+    <t>SS-AP.DOCX</t>
   </si>
   <si>
     <t>Santa Cruz E. (T)</t>
@@ -150,10 +150,10 @@
     <t xml:space="preserve">Especificar Requisito del Software 3: </t>
   </si>
   <si>
-    <t>Eliminar productos al inventario del programa</t>
-  </si>
-  <si>
-    <t>SS-ELI.DOCX</t>
+    <t>Eliminar productos del inventario</t>
+  </si>
+  <si>
+    <t>SS-EPI.DOCX</t>
   </si>
   <si>
     <t>Caballero Meza O./FE(FrontEnd)</t>
@@ -165,7 +165,7 @@
     <t>Modificar productos del inventario</t>
   </si>
   <si>
-    <t>SS-MOD.DOCX</t>
+    <t>SS-MPI.DOCX</t>
   </si>
   <si>
     <t>Especificar Requisito del Software 5:</t>
@@ -174,7 +174,7 @@
     <t>Generar reporte del inventario</t>
   </si>
   <si>
-    <t>SS-GRPI.DOCX</t>
+    <t>SS-GRI.PDF</t>
   </si>
   <si>
     <t>Canales Borda G. /Desarrollador Back-End (DB), T</t>
@@ -321,7 +321,7 @@
     <t>Documento de Testeo de Funciones</t>
   </si>
   <si>
-    <t>SS-TEF.DOCX</t>
+    <t>SS-DTEF.DOCX</t>
   </si>
   <si>
     <t>Canales Borda G. (T), Santa Cruz E. (T), Rojas. P(QA)</t>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">Documento de Pruebas Unitarios </t>
   </si>
   <si>
-    <t>SS-PU.DOCX</t>
+    <t>SS-DPU.DOCX</t>
   </si>
   <si>
     <t>SS-RDS2.DOCX</t>
@@ -1783,7 +1783,7 @@
         <v>45027.0</v>
       </c>
       <c r="G16" s="26">
-        <v>45073.0</v>
+        <v>45094.0</v>
       </c>
       <c r="H16" s="27">
         <v>0.0</v>
@@ -1865,7 +1865,7 @@
         <v>45042.0</v>
       </c>
       <c r="H19" s="40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="31"/>
@@ -1892,7 +1892,7 @@
         <v>45042.0</v>
       </c>
       <c r="H20" s="40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="31"/>
@@ -1918,8 +1918,8 @@
       <c r="G21" s="26">
         <v>45042.0</v>
       </c>
-      <c r="H21" s="27">
-        <v>1.0</v>
+      <c r="H21" s="40">
+        <v>0.5</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="31"/>
@@ -1946,7 +1946,7 @@
         <v>45042.0</v>
       </c>
       <c r="H22" s="40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="31"/>
@@ -1974,8 +1974,8 @@
       <c r="G23" s="26">
         <v>45044.0</v>
       </c>
-      <c r="H23" s="27">
-        <v>1.0</v>
+      <c r="H23" s="40">
+        <v>0.5</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="31"/>
@@ -2305,8 +2305,8 @@
       <c r="G36" s="26">
         <v>45070.0</v>
       </c>
-      <c r="H36" s="27">
-        <v>0.0</v>
+      <c r="H36" s="40">
+        <v>1.0</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>108</v>
@@ -2334,8 +2334,8 @@
       <c r="G37" s="26">
         <v>45070.0</v>
       </c>
-      <c r="H37" s="27">
-        <v>0.0</v>
+      <c r="H37" s="40">
+        <v>1.0</v>
       </c>
       <c r="J37" s="31"/>
       <c r="K37" s="5"/>
@@ -2375,10 +2375,10 @@
         <v>91</v>
       </c>
       <c r="F39" s="26">
-        <v>45064.0</v>
+        <v>45070.0</v>
       </c>
       <c r="G39" s="26">
-        <v>45071.0</v>
+        <v>45078.0</v>
       </c>
       <c r="H39" s="27">
         <v>0.0</v>
@@ -2402,10 +2402,10 @@
         <v>43</v>
       </c>
       <c r="F40" s="26">
-        <v>45064.0</v>
+        <v>45070.0</v>
       </c>
       <c r="G40" s="26">
-        <v>45071.0</v>
+        <v>45078.0</v>
       </c>
       <c r="H40" s="27">
         <v>0.0</v>
@@ -2428,10 +2428,10 @@
         <v>99</v>
       </c>
       <c r="F41" s="26">
-        <v>45064.0</v>
+        <v>45070.0</v>
       </c>
       <c r="G41" s="26">
-        <v>45071.0</v>
+        <v>45078.0</v>
       </c>
       <c r="H41" s="27">
         <v>0.0</v>
@@ -2454,10 +2454,10 @@
         <v>63</v>
       </c>
       <c r="F42" s="26">
-        <v>45064.0</v>
+        <v>45070.0</v>
       </c>
       <c r="G42" s="26">
-        <v>45071.0</v>
+        <v>45078.0</v>
       </c>
       <c r="H42" s="27">
         <v>0.0</v>

--- a/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
+++ b/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akcel\OneDrive\Escritorio\ae\sistema-ecommerce\Desarrollo\Proyecto SuperShop\Manuales\Gestión\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BD96A-234F-47BF-BCAC-AFC30B501F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Cronograma #1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="IntegrantesRoles" sheetId="2" r:id="rId5"/>
+    <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
+    <sheet name="IntegrantesRoles" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -492,92 +501,96 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="31">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF0779E4"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -585,95 +598,98 @@
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -681,7 +697,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -727,33 +743,43 @@
     </fill>
   </fills>
   <borders count="28">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -763,6 +789,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -777,6 +804,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -791,6 +819,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -805,6 +834,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -819,6 +849,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -831,6 +862,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -845,6 +877,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -857,6 +890,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -868,15 +902,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -887,6 +914,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -901,6 +940,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -911,6 +951,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -919,6 +960,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -927,18 +971,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -951,6 +999,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -965,6 +1014,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -977,17 +1027,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1000,28 +1040,44 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1036,6 +1092,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1046,245 +1103,197 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="81">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="20" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="20" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="23" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="25" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="26" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="3" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="26" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="2" fontId="20" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="27" fillId="2" fontId="26" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="26" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="9" fontId="26" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1474,2164 +1483,2198 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.88"/>
-    <col customWidth="1" min="2" max="2" width="54.13"/>
-    <col customWidth="1" min="3" max="3" width="45.38"/>
-    <col customWidth="1" min="4" max="4" width="17.38"/>
-    <col customWidth="1" min="5" max="5" width="52.88"/>
-    <col customWidth="1" min="6" max="7" width="10.38"/>
-    <col customWidth="1" min="8" max="8" width="14.38"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="10.13"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.88671875" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
-        <v>45023.0</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="8">
+        <v>45023</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
-        <v>45098.0</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="C7" s="10">
+        <v>45098</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="26">
-        <v>45027.0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>45036.0</v>
-      </c>
-      <c r="H10" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="22" t="s">
+      <c r="F10" s="22">
+        <v>45027</v>
+      </c>
+      <c r="G10" s="22">
+        <v>45036</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A11" s="72"/>
+      <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="26">
-        <v>45027.0</v>
-      </c>
-      <c r="G11" s="26">
-        <v>45036.0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="22">
+        <v>45027</v>
+      </c>
+      <c r="G11" s="22">
+        <v>45036</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="26">
-        <v>45027.0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>45036.0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22" t="s">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="72"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="22">
+        <v>45027</v>
+      </c>
+      <c r="G12" s="22">
+        <v>45036</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="75"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="72"/>
+      <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="26">
-        <v>45027.0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>45036.0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="28" t="s">
+      <c r="F13" s="22">
+        <v>45027</v>
+      </c>
+      <c r="G13" s="22">
+        <v>45036</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
+      <c r="I13" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="22" t="s">
+      <c r="J13" s="26"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="72"/>
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="27"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="26">
-        <v>45027.0</v>
-      </c>
-      <c r="G15" s="26">
-        <v>45036.0</v>
-      </c>
-      <c r="H15" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" ht="29.25" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="22" t="s">
+      <c r="F15" s="22">
+        <v>45027</v>
+      </c>
+      <c r="G15" s="22">
+        <v>45036</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+      <c r="I15" s="75"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="26">
-        <v>45027.0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>45094.0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="38" t="s">
+      <c r="F16" s="22">
+        <v>45027</v>
+      </c>
+      <c r="G16" s="22">
+        <v>45094</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="75"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="26">
-        <v>45021.0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>45037.0</v>
-      </c>
-      <c r="H17" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="38" t="s">
+      <c r="F17" s="22">
+        <v>45021</v>
+      </c>
+      <c r="G17" s="22">
+        <v>45037</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+      <c r="I17" s="75"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="26">
-        <v>45021.0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>45046.0</v>
-      </c>
-      <c r="H18" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="38" t="s">
+      <c r="F18" s="22">
+        <v>45021</v>
+      </c>
+      <c r="G18" s="22">
+        <v>45046</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="26">
-        <v>45021.0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>45042.0</v>
-      </c>
-      <c r="H19" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="38" t="s">
+      <c r="F19" s="22">
+        <v>45021</v>
+      </c>
+      <c r="G19" s="22">
+        <v>45042</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="72"/>
+      <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="26">
-        <v>45021.0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>45042.0</v>
-      </c>
-      <c r="H20" s="40">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="38" t="s">
+      <c r="F20" s="22">
+        <v>45021</v>
+      </c>
+      <c r="G20" s="22">
+        <v>45042</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="26">
-        <v>45021.0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>45042.0</v>
-      </c>
-      <c r="H21" s="40">
+      <c r="F21" s="22">
+        <v>45021</v>
+      </c>
+      <c r="G21" s="22">
+        <v>45042</v>
+      </c>
+      <c r="H21" s="23">
         <v>0.5</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="38" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="26">
-        <v>45021.0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>45042.0</v>
-      </c>
-      <c r="H22" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="45" t="s">
+      <c r="F22" s="22">
+        <v>45021</v>
+      </c>
+      <c r="G22" s="22">
+        <v>45042</v>
+      </c>
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="26">
-        <v>45041.0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>45044.0</v>
-      </c>
-      <c r="H23" s="40">
+      <c r="F23" s="22">
+        <v>45041</v>
+      </c>
+      <c r="G23" s="22">
+        <v>45044</v>
+      </c>
+      <c r="H23" s="23">
         <v>0.5</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="38" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="72"/>
+      <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="26">
-        <v>45041.0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>45044.0</v>
-      </c>
-      <c r="H24" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="I24" s="28" t="s">
+      <c r="F24" s="22">
+        <v>45041</v>
+      </c>
+      <c r="G24" s="22">
+        <v>45044</v>
+      </c>
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="38" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="72"/>
+      <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="26">
-        <v>45041.0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>45044.0</v>
-      </c>
-      <c r="H25" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="46" t="s">
+      <c r="F25" s="22">
+        <v>45041</v>
+      </c>
+      <c r="G25" s="22">
+        <v>45044</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
+      <c r="I25" s="75"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="72"/>
+      <c r="B26" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="26">
-        <v>45041.0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>45044.0</v>
-      </c>
-      <c r="H26" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="46" t="s">
+      <c r="F26" s="22">
+        <v>45041</v>
+      </c>
+      <c r="G26" s="22">
+        <v>45044</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1</v>
+      </c>
+      <c r="I26" s="75"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="72"/>
+      <c r="B27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="26">
-        <v>45046.0</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="22" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="22">
+        <v>45046</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="26">
-        <v>45046.0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>45046.0</v>
-      </c>
-      <c r="H28" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="28" t="s">
+      <c r="F28" s="22">
+        <v>45046</v>
+      </c>
+      <c r="G28" s="22">
+        <v>45046</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" ht="24.75" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="22" t="s">
+      <c r="J28" s="26"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A29" s="73"/>
+      <c r="B29" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="26">
-        <v>45046.0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>45046.0</v>
-      </c>
-      <c r="H29" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="49" t="s">
+      <c r="F29" s="22">
+        <v>45046</v>
+      </c>
+      <c r="G29" s="22">
+        <v>45046</v>
+      </c>
+      <c r="H29" s="23">
+        <v>1</v>
+      </c>
+      <c r="I29" s="75"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52">
-        <v>45027.0</v>
-      </c>
-      <c r="G30" s="52">
-        <v>45046.0</v>
-      </c>
-      <c r="H30" s="53"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="45" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39">
+        <v>45027</v>
+      </c>
+      <c r="G30" s="39">
+        <v>45046</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="26">
-        <v>45047.0</v>
-      </c>
-      <c r="G31" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="H31" s="55">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="28" t="s">
+      <c r="F31" s="22">
+        <v>45047</v>
+      </c>
+      <c r="G31" s="22">
+        <v>45054</v>
+      </c>
+      <c r="H31" s="42">
+        <v>0</v>
+      </c>
+      <c r="I31" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="56"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="54" t="s">
+      <c r="J31" s="26"/>
+      <c r="K31" s="43"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="72"/>
+      <c r="B32" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="26">
-        <v>45047.0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="H32" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="59" t="s">
+      <c r="F32" s="22">
+        <v>45047</v>
+      </c>
+      <c r="G32" s="22">
+        <v>45054</v>
+      </c>
+      <c r="H32" s="44">
+        <v>1</v>
+      </c>
+      <c r="I32" s="75"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="72"/>
+      <c r="B33" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="26">
-        <v>45047.0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="H33" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="38" t="s">
+      <c r="F33" s="22">
+        <v>45047</v>
+      </c>
+      <c r="G33" s="22">
+        <v>45054</v>
+      </c>
+      <c r="H33" s="42">
+        <v>1</v>
+      </c>
+      <c r="I33" s="75"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="G34" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="H34" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="38" t="s">
+      <c r="F34" s="22">
+        <v>45054</v>
+      </c>
+      <c r="G34" s="22">
+        <v>45054</v>
+      </c>
+      <c r="H34" s="44">
+        <v>1</v>
+      </c>
+      <c r="I34" s="75"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="72"/>
+      <c r="B35" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="G35" s="26">
-        <v>45061.0</v>
-      </c>
-      <c r="H35" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="22" t="s">
+      <c r="F35" s="22">
+        <v>45054</v>
+      </c>
+      <c r="G35" s="22">
+        <v>45061</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="75"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="72"/>
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="26">
-        <v>45054.0</v>
-      </c>
-      <c r="G36" s="26">
-        <v>45070.0</v>
-      </c>
-      <c r="H36" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="I36" s="28" t="s">
+      <c r="F36" s="22">
+        <v>45054</v>
+      </c>
+      <c r="G36" s="22">
+        <v>45070</v>
+      </c>
+      <c r="H36" s="23">
+        <v>1</v>
+      </c>
+      <c r="I36" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" ht="27.75" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="22" t="s">
+      <c r="J36" s="26"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="27.75" customHeight="1">
+      <c r="A37" s="73"/>
+      <c r="B37" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="26">
-        <v>45061.0</v>
-      </c>
-      <c r="G37" s="26">
-        <v>45070.0</v>
-      </c>
-      <c r="H37" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14" t="s">
+      <c r="F37" s="22">
+        <v>45061</v>
+      </c>
+      <c r="G37" s="22">
+        <v>45070</v>
+      </c>
+      <c r="H37" s="23">
+        <v>1</v>
+      </c>
+      <c r="I37" s="75"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63">
-        <v>45047.0</v>
-      </c>
-      <c r="G38" s="63">
-        <v>45070.0</v>
-      </c>
-      <c r="H38" s="64"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="45" t="s">
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48">
+        <v>45047</v>
+      </c>
+      <c r="G38" s="48">
+        <v>45070</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="75"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="26">
-        <v>45070.0</v>
-      </c>
-      <c r="G39" s="26">
-        <v>45078.0</v>
-      </c>
-      <c r="H39" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="54" t="s">
+      <c r="F39" s="22">
+        <v>45070</v>
+      </c>
+      <c r="G39" s="22">
+        <v>45078</v>
+      </c>
+      <c r="H39" s="23">
+        <v>0</v>
+      </c>
+      <c r="I39" s="74"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="72"/>
+      <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="26">
-        <v>45070.0</v>
-      </c>
-      <c r="G40" s="26">
-        <v>45078.0</v>
-      </c>
-      <c r="H40" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="66"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="29"/>
-      <c r="B41" s="59" t="s">
+      <c r="F40" s="22">
+        <v>45070</v>
+      </c>
+      <c r="G40" s="22">
+        <v>45078</v>
+      </c>
+      <c r="H40" s="23">
+        <v>1</v>
+      </c>
+      <c r="I40" s="75"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="72"/>
+      <c r="B41" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="26">
-        <v>45070.0</v>
-      </c>
-      <c r="G41" s="26">
-        <v>45078.0</v>
-      </c>
-      <c r="H41" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="22" t="s">
+      <c r="F41" s="22">
+        <v>45070</v>
+      </c>
+      <c r="G41" s="22">
+        <v>45078</v>
+      </c>
+      <c r="H41" s="23">
+        <v>1</v>
+      </c>
+      <c r="I41" s="75"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="72"/>
+      <c r="B42" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="26">
-        <v>45070.0</v>
-      </c>
-      <c r="G42" s="26">
-        <v>45078.0</v>
-      </c>
-      <c r="H42" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="31"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="29"/>
-      <c r="B43" s="22" t="s">
+      <c r="F42" s="22">
+        <v>45070</v>
+      </c>
+      <c r="G42" s="22">
+        <v>45078</v>
+      </c>
+      <c r="H42" s="23">
+        <v>0</v>
+      </c>
+      <c r="I42" s="75"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="72"/>
+      <c r="B43" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="26">
-        <v>45086.0</v>
-      </c>
-      <c r="G43" s="26">
-        <v>45093.0</v>
-      </c>
-      <c r="H43" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I43" s="28" t="s">
+      <c r="F43" s="22">
+        <v>45086</v>
+      </c>
+      <c r="G43" s="22">
+        <v>45093</v>
+      </c>
+      <c r="H43" s="23">
+        <v>0</v>
+      </c>
+      <c r="I43" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="22" t="s">
+      <c r="J43" s="26"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="72"/>
+      <c r="B44" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="26">
-        <v>45086.0</v>
-      </c>
-      <c r="G44" s="26">
-        <v>45093.0</v>
-      </c>
-      <c r="H44" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" ht="27.0" customHeight="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="22" t="s">
+      <c r="F44" s="22">
+        <v>45086</v>
+      </c>
+      <c r="G44" s="22">
+        <v>45093</v>
+      </c>
+      <c r="H44" s="23">
+        <v>0</v>
+      </c>
+      <c r="I44" s="75"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="27" customHeight="1">
+      <c r="A45" s="72"/>
+      <c r="B45" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="26">
-        <v>45093.0</v>
-      </c>
-      <c r="G45" s="26">
-        <v>45098.0</v>
-      </c>
-      <c r="H45" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I45" s="28" t="s">
+      <c r="F45" s="22">
+        <v>45093</v>
+      </c>
+      <c r="G45" s="22">
+        <v>45098</v>
+      </c>
+      <c r="H45" s="23">
+        <v>0</v>
+      </c>
+      <c r="I45" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="22" t="s">
+      <c r="J45" s="26"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A46" s="72"/>
+      <c r="B46" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F46" s="26">
-        <v>45093.0</v>
-      </c>
-      <c r="G46" s="26">
-        <v>45094.0</v>
-      </c>
-      <c r="H46" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="67" t="s">
+      <c r="F46" s="22">
+        <v>45093</v>
+      </c>
+      <c r="G46" s="22">
+        <v>45094</v>
+      </c>
+      <c r="H46" s="23">
+        <v>0</v>
+      </c>
+      <c r="I46" s="75"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="73"/>
+      <c r="B47" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="26">
-        <v>45094.0</v>
-      </c>
-      <c r="G47" s="26">
-        <v>45098.0</v>
-      </c>
-      <c r="H47" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="14" t="s">
+      <c r="F47" s="22">
+        <v>45094</v>
+      </c>
+      <c r="G47" s="22">
+        <v>45098</v>
+      </c>
+      <c r="H47" s="23">
+        <v>0</v>
+      </c>
+      <c r="I47" s="75"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="70"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="73">
-        <v>45064.0</v>
-      </c>
-      <c r="G48" s="73">
-        <v>45098.0</v>
-      </c>
-      <c r="H48" s="74"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="77"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="H202" s="7"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="F203" s="7"/>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="F206" s="7"/>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="F207" s="7"/>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="F208" s="7"/>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="F209" s="7"/>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="F210" s="7"/>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="F212" s="7"/>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="F213" s="7"/>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="F214" s="7"/>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="F215" s="7"/>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="F216" s="7"/>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="F218" s="7"/>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="F219" s="7"/>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="F221" s="7"/>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="F222" s="7"/>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="F223" s="7"/>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56">
+        <v>45064</v>
+      </c>
+      <c r="G48" s="56">
+        <v>45098</v>
+      </c>
+      <c r="H48" s="57"/>
+      <c r="I48" s="75"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B50" s="60"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+    </row>
+    <row r="230" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+    </row>
+    <row r="233" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="250" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="251" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="252" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="253" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="254" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="255" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="256" spans="6:8" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -4381,6 +4424,11 @@
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I17"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A39:A47"/>
@@ -4389,127 +4437,120 @@
     <mergeCell ref="I39:I42"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="I45:I48"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I17"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I28:I30"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.63"/>
-    <col customWidth="1" min="2" max="2" width="31.38"/>
-    <col customWidth="1" min="3" max="3" width="49.5"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="78" t="s">
+    <row r="1" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B2" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B3" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="80" t="s">
+      <c r="C3" s="78"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B4" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="63" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="82" t="s">
+    <row r="5" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B5" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B6" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="65" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="82" t="s">
+    <row r="7" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B7" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="B8" s="84" t="s">
+    <row r="8" spans="2:3" ht="16.5" customHeight="1">
+      <c r="B8" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="65" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="82" t="s">
+    <row r="9" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B9" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="65" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="82" t="s">
+    <row r="10" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B10" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="85" t="s">
+    <row r="11" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B11" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="68" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="87" t="s">
+    <row r="12" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B13" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="70" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="14" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -5499,11 +5540,9 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C13"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
+++ b/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akcel\OneDrive\Escritorio\ae\sistema-ecommerce\Desarrollo\Proyecto SuperShop\Manuales\Gestión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akcel\OneDrive\Escritorio\repoasubir\sistema-ecommerce\Desarrollo\Proyecto SuperShop\Manuales\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BD96A-234F-47BF-BCAC-AFC30B501F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D96B3-64B2-494A-AB4F-8F32944045D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,22 +1255,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:K1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1513,23 +1513,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -1641,7 +1641,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="75" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1669,7 +1669,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A11" s="72"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
@@ -1691,13 +1691,13 @@
       <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="78" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="72"/>
+      <c r="A12" s="76"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1710,12 +1710,12 @@
       <c r="H12" s="23">
         <v>1</v>
       </c>
-      <c r="I12" s="75"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="26"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="72"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
@@ -1737,14 +1737,14 @@
       <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="78" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="72"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1760,11 +1760,11 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="75"/>
+      <c r="I14" s="72"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="72"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
@@ -1786,11 +1786,11 @@
       <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="75"/>
+      <c r="I15" s="72"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A16" s="72"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
@@ -1812,12 +1812,12 @@
       <c r="H16" s="23">
         <v>0</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="26"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="72"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="18" t="s">
         <v>36</v>
       </c>
@@ -1839,12 +1839,12 @@
       <c r="H17" s="23">
         <v>1</v>
       </c>
-      <c r="I17" s="75"/>
+      <c r="I17" s="72"/>
       <c r="J17" s="26"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="72"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="72"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="72"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="72"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="73"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="79" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -2008,7 +2008,7 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="72"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2030,14 +2030,14 @@
       <c r="H24" s="23">
         <v>1</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="78" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="72"/>
+      <c r="A25" s="76"/>
       <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
@@ -2059,12 +2059,12 @@
       <c r="H25" s="23">
         <v>1</v>
       </c>
-      <c r="I25" s="75"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="26"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="72"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="33" t="s">
         <v>72</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="H26" s="23">
         <v>1</v>
       </c>
-      <c r="I26" s="75"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="26"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="72"/>
+      <c r="A27" s="76"/>
       <c r="B27" s="33" t="s">
         <v>76</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="72"/>
+      <c r="A28" s="76"/>
       <c r="B28" s="18" t="s">
         <v>77</v>
       </c>
@@ -2130,14 +2130,14 @@
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="78" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A29" s="73"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="18" t="s">
         <v>82</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="H29" s="23">
         <v>1</v>
       </c>
-      <c r="I29" s="75"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="26"/>
       <c r="K29" s="2"/>
     </row>
@@ -2178,10 +2178,10 @@
         <v>45046</v>
       </c>
       <c r="H30" s="40"/>
-      <c r="I30" s="75"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="79" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -2205,14 +2205,14 @@
       <c r="H31" s="42">
         <v>0</v>
       </c>
-      <c r="I31" s="74" t="s">
+      <c r="I31" s="78" t="s">
         <v>92</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="72"/>
+      <c r="A32" s="76"/>
       <c r="B32" s="41" t="s">
         <v>93</v>
       </c>
@@ -2234,12 +2234,12 @@
       <c r="H32" s="44">
         <v>1</v>
       </c>
-      <c r="I32" s="75"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="26"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="72"/>
+      <c r="A33" s="76"/>
       <c r="B33" s="45" t="s">
         <v>96</v>
       </c>
@@ -2261,12 +2261,12 @@
       <c r="H33" s="42">
         <v>1</v>
       </c>
-      <c r="I33" s="75"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="26"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="72"/>
+      <c r="A34" s="76"/>
       <c r="B34" s="18" t="s">
         <v>100</v>
       </c>
@@ -2288,12 +2288,12 @@
       <c r="H34" s="44">
         <v>1</v>
       </c>
-      <c r="I34" s="75"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="26"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="72"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="18" t="s">
         <v>104</v>
       </c>
@@ -2315,12 +2315,12 @@
       <c r="H35" s="23">
         <v>1</v>
       </c>
-      <c r="I35" s="75"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="26"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="72"/>
+      <c r="A36" s="76"/>
       <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
@@ -2342,14 +2342,14 @@
       <c r="H36" s="23">
         <v>1</v>
       </c>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="78" t="s">
         <v>108</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A37" s="73"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="18" t="s">
         <v>82</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="H37" s="23">
         <v>1</v>
       </c>
-      <c r="I37" s="75"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="26"/>
       <c r="K37" s="2"/>
     </row>
@@ -2392,10 +2392,10 @@
         <v>45070</v>
       </c>
       <c r="H38" s="49"/>
-      <c r="I38" s="75"/>
+      <c r="I38" s="72"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="79" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="41" t="s">
@@ -2419,12 +2419,12 @@
       <c r="H39" s="23">
         <v>0</v>
       </c>
-      <c r="I39" s="74"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="26"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="72"/>
+      <c r="A40" s="76"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
@@ -2446,12 +2446,12 @@
       <c r="H40" s="23">
         <v>1</v>
       </c>
-      <c r="I40" s="75"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="26"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="72"/>
+      <c r="A41" s="76"/>
       <c r="B41" s="45" t="s">
         <v>117</v>
       </c>
@@ -2473,12 +2473,12 @@
       <c r="H41" s="23">
         <v>1</v>
       </c>
-      <c r="I41" s="75"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="26"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="72"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="18" t="s">
         <v>119</v>
       </c>
@@ -2500,12 +2500,12 @@
       <c r="H42" s="23">
         <v>0</v>
       </c>
-      <c r="I42" s="75"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="26"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="72"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="18" t="s">
         <v>121</v>
       </c>
@@ -2525,16 +2525,16 @@
         <v>45093</v>
       </c>
       <c r="H43" s="23">
-        <v>0</v>
-      </c>
-      <c r="I43" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="78" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="72"/>
+      <c r="A44" s="76"/>
       <c r="B44" s="18" t="s">
         <v>77</v>
       </c>
@@ -2554,14 +2554,14 @@
         <v>45093</v>
       </c>
       <c r="H44" s="23">
-        <v>0</v>
-      </c>
-      <c r="I44" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="72"/>
       <c r="J44" s="26"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="27" customHeight="1">
-      <c r="A45" s="72"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="18" t="s">
         <v>82</v>
       </c>
@@ -2581,16 +2581,16 @@
         <v>45098</v>
       </c>
       <c r="H45" s="23">
-        <v>0</v>
-      </c>
-      <c r="I45" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="78" t="s">
         <v>128</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A46" s="72"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="18" t="s">
         <v>129</v>
       </c>
@@ -2610,14 +2610,14 @@
         <v>45094</v>
       </c>
       <c r="H46" s="23">
-        <v>0</v>
-      </c>
-      <c r="I46" s="75"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="72"/>
       <c r="J46" s="26"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="73"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="50" t="s">
         <v>132</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="H47" s="23">
         <v>0</v>
       </c>
-      <c r="I47" s="75"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="26"/>
       <c r="K47" s="2"/>
     </row>
@@ -2660,7 +2660,7 @@
         <v>45098</v>
       </c>
       <c r="H48" s="57"/>
-      <c r="I48" s="75"/>
+      <c r="I48" s="72"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1">
       <c r="B49" s="58"/>
@@ -4424,11 +4424,6 @@
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I17"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A39:A47"/>
@@ -4439,6 +4434,11 @@
     <mergeCell ref="I45:I48"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I28:I30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -4473,7 +4473,7 @@
       <c r="B3" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="74"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="62" t="s">

--- a/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
+++ b/Desarrollo/Proyecto SuperShop/Manuales/Gestión/SS-CP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akcel\OneDrive\Escritorio\repoasubir\sistema-ecommerce\Desarrollo\Proyecto SuperShop\Manuales\Gestión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akcel\OneDrive\Escritorio\Nueva carpeta (3)\sistema-ecommerce\Desarrollo\Proyecto SuperShop\Manuales\Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1D96B3-64B2-494A-AB4F-8F32944045D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88CE1FF-7399-4463-9B3B-5D9FAE8279DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1255,22 +1255,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1496,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1513,23 +1513,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -1641,7 +1641,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="79" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1669,7 +1669,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A11" s="76"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="18" t="s">
         <v>20</v>
       </c>
@@ -1691,13 +1691,13 @@
       <c r="H11" s="23">
         <v>1</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="74" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A12" s="76"/>
+      <c r="A12" s="72"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1710,12 +1710,12 @@
       <c r="H12" s="23">
         <v>1</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="26"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A13" s="76"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="18" t="s">
         <v>23</v>
       </c>
@@ -1737,14 +1737,14 @@
       <c r="H13" s="23">
         <v>1</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="74" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A14" s="76"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1760,11 +1760,11 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="72"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A15" s="76"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
@@ -1786,11 +1786,11 @@
       <c r="H15" s="23">
         <v>1</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A16" s="76"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
@@ -1810,14 +1810,14 @@
         <v>45094</v>
       </c>
       <c r="H16" s="23">
-        <v>0</v>
-      </c>
-      <c r="I16" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="75"/>
       <c r="J16" s="26"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="76"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="18" t="s">
         <v>36</v>
       </c>
@@ -1839,12 +1839,12 @@
       <c r="H17" s="23">
         <v>1</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="26"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="76"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="76"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="76"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A21" s="76"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A22" s="77"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="18" t="s">
         <v>55</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="71" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -2008,7 +2008,7 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="76"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
@@ -2030,14 +2030,14 @@
       <c r="H24" s="23">
         <v>1</v>
       </c>
-      <c r="I24" s="78" t="s">
+      <c r="I24" s="74" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="76"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="18" t="s">
         <v>69</v>
       </c>
@@ -2059,12 +2059,12 @@
       <c r="H25" s="23">
         <v>1</v>
       </c>
-      <c r="I25" s="72"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="26"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="33" t="s">
         <v>72</v>
       </c>
@@ -2086,12 +2086,12 @@
       <c r="H26" s="23">
         <v>1</v>
       </c>
-      <c r="I26" s="72"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="26"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="76"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="33" t="s">
         <v>76</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="76"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="18" t="s">
         <v>77</v>
       </c>
@@ -2130,14 +2130,14 @@
       <c r="H28" s="23">
         <v>1</v>
       </c>
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="74" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A29" s="77"/>
+      <c r="A29" s="73"/>
       <c r="B29" s="18" t="s">
         <v>82</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="H29" s="23">
         <v>1</v>
       </c>
-      <c r="I29" s="72"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="26"/>
       <c r="K29" s="2"/>
     </row>
@@ -2178,10 +2178,10 @@
         <v>45046</v>
       </c>
       <c r="H30" s="40"/>
-      <c r="I30" s="72"/>
+      <c r="I30" s="75"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="71" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="41" t="s">
@@ -2205,14 +2205,14 @@
       <c r="H31" s="42">
         <v>0</v>
       </c>
-      <c r="I31" s="78" t="s">
+      <c r="I31" s="74" t="s">
         <v>92</v>
       </c>
       <c r="J31" s="26"/>
       <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="76"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="41" t="s">
         <v>93</v>
       </c>
@@ -2234,12 +2234,12 @@
       <c r="H32" s="44">
         <v>1</v>
       </c>
-      <c r="I32" s="72"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="26"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A33" s="76"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="45" t="s">
         <v>96</v>
       </c>
@@ -2261,12 +2261,12 @@
       <c r="H33" s="42">
         <v>1</v>
       </c>
-      <c r="I33" s="72"/>
+      <c r="I33" s="75"/>
       <c r="J33" s="26"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="76"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="18" t="s">
         <v>100</v>
       </c>
@@ -2288,12 +2288,12 @@
       <c r="H34" s="44">
         <v>1</v>
       </c>
-      <c r="I34" s="72"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="26"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A35" s="76"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="18" t="s">
         <v>104</v>
       </c>
@@ -2315,12 +2315,12 @@
       <c r="H35" s="23">
         <v>1</v>
       </c>
-      <c r="I35" s="72"/>
+      <c r="I35" s="75"/>
       <c r="J35" s="26"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A36" s="76"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
@@ -2342,14 +2342,14 @@
       <c r="H36" s="23">
         <v>1</v>
       </c>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="74" t="s">
         <v>108</v>
       </c>
       <c r="J36" s="26"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A37" s="77"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="18" t="s">
         <v>82</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="H37" s="23">
         <v>1</v>
       </c>
-      <c r="I37" s="72"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="26"/>
       <c r="K37" s="2"/>
     </row>
@@ -2392,10 +2392,10 @@
         <v>45070</v>
       </c>
       <c r="H38" s="49"/>
-      <c r="I38" s="72"/>
+      <c r="I38" s="75"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="71" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="41" t="s">
@@ -2419,12 +2419,12 @@
       <c r="H39" s="23">
         <v>0</v>
       </c>
-      <c r="I39" s="78"/>
+      <c r="I39" s="74"/>
       <c r="J39" s="26"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="76"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="41" t="s">
         <v>115</v>
       </c>
@@ -2446,12 +2446,12 @@
       <c r="H40" s="23">
         <v>1</v>
       </c>
-      <c r="I40" s="72"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="26"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="76"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="45" t="s">
         <v>117</v>
       </c>
@@ -2473,12 +2473,12 @@
       <c r="H41" s="23">
         <v>1</v>
       </c>
-      <c r="I41" s="72"/>
+      <c r="I41" s="75"/>
       <c r="J41" s="26"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="76"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="18" t="s">
         <v>119</v>
       </c>
@@ -2500,12 +2500,12 @@
       <c r="H42" s="23">
         <v>0</v>
       </c>
-      <c r="I42" s="72"/>
+      <c r="I42" s="75"/>
       <c r="J42" s="26"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A43" s="76"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="18" t="s">
         <v>121</v>
       </c>
@@ -2527,14 +2527,14 @@
       <c r="H43" s="23">
         <v>1</v>
       </c>
-      <c r="I43" s="78" t="s">
+      <c r="I43" s="74" t="s">
         <v>124</v>
       </c>
       <c r="J43" s="26"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A44" s="76"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="18" t="s">
         <v>77</v>
       </c>
@@ -2556,12 +2556,12 @@
       <c r="H44" s="23">
         <v>1</v>
       </c>
-      <c r="I44" s="72"/>
+      <c r="I44" s="75"/>
       <c r="J44" s="26"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="27" customHeight="1">
-      <c r="A45" s="76"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="18" t="s">
         <v>82</v>
       </c>
@@ -2583,14 +2583,14 @@
       <c r="H45" s="23">
         <v>1</v>
       </c>
-      <c r="I45" s="78" t="s">
+      <c r="I45" s="74" t="s">
         <v>128</v>
       </c>
       <c r="J45" s="26"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A46" s="76"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="18" t="s">
         <v>129</v>
       </c>
@@ -2612,12 +2612,12 @@
       <c r="H46" s="23">
         <v>1</v>
       </c>
-      <c r="I46" s="72"/>
+      <c r="I46" s="75"/>
       <c r="J46" s="26"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A47" s="77"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="50" t="s">
         <v>132</v>
       </c>
@@ -2637,9 +2637,9 @@
         <v>45098</v>
       </c>
       <c r="H47" s="23">
-        <v>0</v>
-      </c>
-      <c r="I47" s="72"/>
+        <v>0.8</v>
+      </c>
+      <c r="I47" s="75"/>
       <c r="J47" s="26"/>
       <c r="K47" s="2"/>
     </row>
@@ -2660,7 +2660,7 @@
         <v>45098</v>
       </c>
       <c r="H48" s="57"/>
-      <c r="I48" s="72"/>
+      <c r="I48" s="75"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1">
       <c r="B49" s="58"/>
@@ -4424,6 +4424,11 @@
     <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I17"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A39:A47"/>
@@ -4434,11 +4439,6 @@
     <mergeCell ref="I45:I48"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I28:I30"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -4473,7 +4473,7 @@
       <c r="B3" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="74"/>
+      <c r="C3" s="78"/>
     </row>
     <row r="4" spans="2:3" ht="15.75" customHeight="1">
       <c r="B4" s="62" t="s">
